--- a/tests/test_files/test_version7_flapjack_compiler_sbol3_v0022.xlsx
+++ b/tests/test_files/test_version7_flapjack_compiler_sbol3_v0022.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gonzalovidal/Documents/GitHub/FlapjackUploadMeasurements-master2/tests/test_files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saisa\FlapjackUploadMeasurements\tests\test_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52EEFD9C-E63D-914D-9AE4-0DBE70919408}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F66CD32A-8663-4E81-838D-30E1760C58EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="12580" tabRatio="943" firstSheet="3" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="943" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Init" sheetId="9" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1066" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1066" uniqueCount="315">
   <si>
     <t>Collection Name</t>
   </si>
@@ -480,6 +480,9 @@
     <t>SupplementB</t>
   </si>
   <si>
+    <t>0.3 g/mL</t>
+  </si>
+  <si>
     <t>Supplement3</t>
   </si>
   <si>
@@ -489,12 +492,18 @@
     <t>SupplementC</t>
   </si>
   <si>
+    <t>0.4 nM</t>
+  </si>
+  <si>
     <t>Supplement4</t>
   </si>
   <si>
     <t>SupplementD</t>
   </si>
   <si>
+    <t>0.5 nM</t>
+  </si>
+  <si>
     <t>Supplement5</t>
   </si>
   <si>
@@ -502,6 +511,9 @@
   </si>
   <si>
     <t>SupplementE</t>
+  </si>
+  <si>
+    <t>0.6 g/mL</t>
   </si>
   <si>
     <t>plasmid</t>
@@ -1010,27 +1022,12 @@
   <si>
     <t>sbol_subcomponents</t>
   </si>
-  <si>
-    <t>0.2</t>
-  </si>
-  <si>
-    <t>0.3</t>
-  </si>
-  <si>
-    <t>0.4</t>
-  </si>
-  <si>
-    <t>0.5</t>
-  </si>
-  <si>
-    <t>0.6</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="34">
+  <fonts count="34" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4694,20 +4691,20 @@
       <selection pane="bottomRight" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="16"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.28515625" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" customWidth="1"/>
+    <col min="1" max="1" width="13.26953125" customWidth="1"/>
+    <col min="2" max="2" width="9.7265625" customWidth="1"/>
+    <col min="3" max="3" width="14.81640625" customWidth="1"/>
+    <col min="4" max="4" width="16.7265625" customWidth="1"/>
+    <col min="5" max="5" width="18.26953125" customWidth="1"/>
+    <col min="6" max="6" width="13.453125" customWidth="1"/>
     <col min="7" max="7" width="15" customWidth="1"/>
-    <col min="8" max="8" width="19.42578125" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" customWidth="1"/>
+    <col min="8" max="8" width="19.36328125" customWidth="1"/>
+    <col min="9" max="9" width="14.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="22" t="s">
         <v>34</v>
       </c>
@@ -4716,7 +4713,7 @@
       </c>
       <c r="C1" s="27"/>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="22" t="s">
         <v>35</v>
       </c>
@@ -4724,7 +4721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="21" t="s">
         <v>20</v>
       </c>
@@ -4753,9 +4750,9 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="30" customFormat="1">
+    <row r="11" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="B11" s="30" t="b">
         <v>1</v>
@@ -4782,9 +4779,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" s="30" customFormat="1">
+    <row r="12" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="B12" s="30" t="b">
         <v>1</v>
@@ -4811,9 +4808,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" s="30" customFormat="1">
+    <row r="13" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="B13" s="30" t="b">
         <v>1</v>
@@ -4840,9 +4837,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" s="30" customFormat="1">
+    <row r="14" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="B14" s="30" t="b">
         <v>1</v>
@@ -4869,9 +4866,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" s="30" customFormat="1">
+    <row r="15" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="B15" s="30" t="b">
         <v>0</v>
@@ -4898,9 +4895,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" s="30" customFormat="1">
+    <row r="16" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="30" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="B16" s="30" t="b">
         <v>1</v>
@@ -4927,9 +4924,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9" s="30" customFormat="1">
+    <row r="17" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="17" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="B17" s="30" t="b">
         <v>1</v>
@@ -4956,9 +4953,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" s="30" customFormat="1">
+    <row r="18" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="30" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B18" s="30" t="b">
         <v>1</v>
@@ -4985,7 +4982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9" s="30" customFormat="1">
+    <row r="19" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="30" t="s">
         <v>133</v>
       </c>
@@ -5014,7 +5011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" s="30" customFormat="1">
+    <row r="20" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="30" t="s">
         <v>87</v>
       </c>
@@ -5043,7 +5040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>50</v>
       </c>
@@ -5072,7 +5069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>54</v>
       </c>
@@ -5101,9 +5098,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="18" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="B23" t="b">
         <v>0</v>
@@ -5130,7 +5127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="18" t="s">
         <v>118</v>
       </c>
@@ -5177,14 +5174,14 @@
       <selection activeCell="F7" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="16"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" style="30" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.6328125" style="30" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5192,7 +5189,7 @@
       <c r="C1" s="30"/>
       <c r="D1" s="30"/>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -5200,7 +5197,7 @@
       <c r="C2" s="2"/>
       <c r="D2" s="30"/>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -5208,7 +5205,7 @@
       <c r="C3" s="2"/>
       <c r="D3" s="30"/>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
@@ -5216,7 +5213,7 @@
       <c r="C4" s="2"/>
       <c r="D4" s="30"/>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
@@ -5224,7 +5221,7 @@
       <c r="C5" s="2"/>
       <c r="D5" s="30"/>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
@@ -5232,7 +5229,7 @@
       <c r="C6" s="2"/>
       <c r="D6" s="30"/>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
@@ -5240,7 +5237,7 @@
       <c r="C7" s="2"/>
       <c r="D7" s="30"/>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>8</v>
       </c>
@@ -5248,13 +5245,13 @@
       <c r="C8" s="2"/>
       <c r="D8" s="30"/>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="5"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
       <c r="D9" s="30"/>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>9</v>
       </c>
@@ -5262,7 +5259,7 @@
       <c r="C10" s="8"/>
       <c r="D10" s="30"/>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="57" t="s">
         <v>39</v>
       </c>
@@ -5270,13 +5267,13 @@
       <c r="C11" s="58"/>
       <c r="D11" s="30"/>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="30"/>
       <c r="B12" s="30"/>
       <c r="C12" s="30"/>
       <c r="D12" s="30"/>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
         <v>10</v>
       </c>
@@ -5285,15 +5282,15 @@
       <c r="D13" s="11"/>
       <c r="E13" s="11"/>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="D14" s="10" t="s">
         <v>33</v>
@@ -5302,19 +5299,19 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="30"/>
       <c r="B15" s="30"/>
       <c r="C15" s="30"/>
       <c r="D15" s="30"/>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="30"/>
       <c r="B16" s="30"/>
       <c r="C16" s="30"/>
       <c r="D16" s="30"/>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
         <v>11</v>
       </c>
@@ -5322,21 +5319,21 @@
       <c r="C17" s="30"/>
       <c r="D17" s="30"/>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="30"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
       <c r="D18" s="30"/>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="11" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="D19" s="11" t="s">
         <v>31</v>
@@ -5345,15 +5342,15 @@
         <v>83</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="17" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="C20" s="30" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="D20" s="17" t="s">
         <v>33</v>
@@ -5362,15 +5359,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="C21" s="30" t="s">
         <v>165</v>
-      </c>
-      <c r="B21" s="17" t="s">
-        <v>170</v>
-      </c>
-      <c r="C21" s="30" t="s">
-        <v>161</v>
       </c>
       <c r="D21" s="17" t="s">
         <v>33</v>
@@ -5379,15 +5376,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="B22" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="C22" s="30" t="s">
         <v>166</v>
-      </c>
-      <c r="B22" s="17" t="s">
-        <v>171</v>
-      </c>
-      <c r="C22" s="30" t="s">
-        <v>162</v>
       </c>
       <c r="D22" s="17" t="s">
         <v>33</v>
@@ -5396,15 +5393,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="17" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="D23" s="17" t="s">
         <v>33</v>
@@ -5413,15 +5410,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="17" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="C24" s="30" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="D24" s="17" t="s">
         <v>33</v>
@@ -5462,20 +5459,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF713561-D597-4255-835A-10AF4E0628A8}">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="16"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.08984375" customWidth="1"/>
+    <col min="3" max="3" width="9.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5487,7 +5484,7 @@
       <c r="E1" s="30"/>
       <c r="F1" s="30"/>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -5497,7 +5494,7 @@
       <c r="E2" s="2"/>
       <c r="F2" s="30"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -5507,7 +5504,7 @@
       <c r="E3" s="2"/>
       <c r="F3" s="30"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
@@ -5517,7 +5514,7 @@
       <c r="E4" s="2"/>
       <c r="F4" s="30"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
@@ -5527,7 +5524,7 @@
       <c r="E5" s="2"/>
       <c r="F5" s="30"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
@@ -5537,7 +5534,7 @@
       <c r="E6" s="2"/>
       <c r="F6" s="30"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
@@ -5547,7 +5544,7 @@
       <c r="E7" s="2"/>
       <c r="F7" s="30"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>8</v>
       </c>
@@ -5557,7 +5554,7 @@
       <c r="E8" s="2"/>
       <c r="F8" s="30"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="5"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -5565,7 +5562,7 @@
       <c r="E9" s="6"/>
       <c r="F9" s="30"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>9</v>
       </c>
@@ -5575,7 +5572,7 @@
       <c r="E10" s="8"/>
       <c r="F10" s="30"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="57" t="s">
         <v>39</v>
       </c>
@@ -5585,7 +5582,7 @@
       <c r="E11" s="58"/>
       <c r="F11" s="30"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="30"/>
       <c r="B12" s="30"/>
       <c r="C12" s="30"/>
@@ -5593,7 +5590,7 @@
       <c r="E12" s="30"/>
       <c r="F12" s="30"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
         <v>10</v>
       </c>
@@ -5603,7 +5600,7 @@
       <c r="E13" s="11"/>
       <c r="F13" s="11"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>134</v>
       </c>
@@ -5623,7 +5620,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="30"/>
       <c r="B15" s="30"/>
       <c r="C15" s="30"/>
@@ -5631,7 +5628,7 @@
       <c r="E15" s="30"/>
       <c r="F15" s="30"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="30"/>
       <c r="B16" s="30"/>
       <c r="C16" s="30"/>
@@ -5639,7 +5636,7 @@
       <c r="E16" s="30"/>
       <c r="F16" s="30"/>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
         <v>11</v>
       </c>
@@ -5649,7 +5646,7 @@
       <c r="E17" s="30"/>
       <c r="F17" s="30"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="30"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
@@ -5657,7 +5654,7 @@
       <c r="E18" s="6"/>
       <c r="F18" s="30"/>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="11" t="s">
         <v>138</v>
       </c>
@@ -5677,7 +5674,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="17" t="s">
         <v>134</v>
       </c>
@@ -5691,13 +5688,13 @@
         <v>95</v>
       </c>
       <c r="E20" s="30" t="s">
-        <v>311</v>
+        <v>136</v>
       </c>
       <c r="F20" s="17" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="17" t="s">
         <v>142</v>
       </c>
@@ -5711,67 +5708,67 @@
         <v>143</v>
       </c>
       <c r="E21" s="30" t="s">
-        <v>312</v>
+        <v>144</v>
       </c>
       <c r="F21" s="17" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="17" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C22" s="17" t="s">
         <v>101</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E22" s="30" t="s">
-        <v>313</v>
+        <v>148</v>
       </c>
       <c r="F22" s="17" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="17" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C23" s="17" t="s">
         <v>102</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E23" s="30" t="s">
-        <v>314</v>
+        <v>151</v>
       </c>
       <c r="F23" s="17" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="17" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C24" s="17" t="s">
         <v>103</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E24" s="30" t="s">
-        <v>315</v>
+        <v>155</v>
       </c>
       <c r="F24" s="17" t="s">
         <v>137</v>
@@ -5797,80 +5794,80 @@
       <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11.26953125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.140625" style="30" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" style="30" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" style="30" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" style="30" customWidth="1"/>
-    <col min="5" max="5" width="19.85546875" style="30" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="30" bestFit="1" customWidth="1"/>
-    <col min="7" max="14" width="8.5703125" style="30" customWidth="1"/>
-    <col min="15" max="16384" width="11.28515625" style="30"/>
+    <col min="1" max="1" width="16.1796875" style="30" customWidth="1"/>
+    <col min="2" max="2" width="14.1796875" style="30" customWidth="1"/>
+    <col min="3" max="3" width="14.90625" style="30" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.1796875" style="30" customWidth="1"/>
+    <col min="5" max="5" width="19.81640625" style="30" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.6328125" style="30" bestFit="1" customWidth="1"/>
+    <col min="7" max="14" width="8.54296875" style="30" customWidth="1"/>
+    <col min="15" max="16384" width="11.26953125" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" customHeight="1">
+    <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="37"/>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="38" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="37"/>
       <c r="D2" s="37"/>
     </row>
-    <row r="3" spans="1:6" ht="15" customHeight="1">
+    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="38" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="37"/>
       <c r="D3" s="37"/>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="38" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="37"/>
       <c r="D4" s="37"/>
     </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1">
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="38" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="37"/>
       <c r="D5" s="37"/>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="38" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="37"/>
       <c r="D6" s="37"/>
     </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1">
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="38" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="37"/>
       <c r="D7" s="37"/>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="39" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="37"/>
       <c r="D8" s="37"/>
     </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1">
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="40"/>
       <c r="B9" s="41"/>
       <c r="C9" s="41"/>
       <c r="D9" s="41"/>
     </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="42" t="s">
         <v>9</v>
       </c>
@@ -5878,7 +5875,7 @@
       <c r="C10" s="43"/>
       <c r="D10" s="43"/>
     </row>
-    <row r="11" spans="1:6" ht="15" customHeight="1">
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="60" t="s">
         <v>39</v>
       </c>
@@ -5886,8 +5883,8 @@
       <c r="C11" s="61"/>
       <c r="D11" s="61"/>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1"/>
-    <row r="13" spans="1:6" ht="15" customHeight="1">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="44" t="s">
         <v>10</v>
       </c>
@@ -5897,7 +5894,7 @@
       <c r="E13" s="45"/>
       <c r="F13" s="11"/>
     </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1">
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="46" t="s">
         <v>94</v>
       </c>
@@ -5917,19 +5914,19 @@
         <v>98</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15" customHeight="1"/>
-    <row r="16" spans="1:6" ht="15" customHeight="1"/>
-    <row r="17" spans="1:6" ht="15" customHeight="1">
+    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="44" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1">
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="41"/>
       <c r="C18" s="41"/>
       <c r="D18" s="41"/>
     </row>
-    <row r="19" spans="1:6" ht="15" customHeight="1">
+    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="11" t="s">
         <v>88</v>
       </c>
@@ -5949,7 +5946,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" customHeight="1">
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="17" t="s">
         <v>99</v>
       </c>
@@ -5969,7 +5966,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15" customHeight="1">
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="17" t="s">
         <v>100</v>
       </c>
@@ -5989,7 +5986,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1">
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="17" t="s">
         <v>101</v>
       </c>
@@ -6009,7 +6006,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15" customHeight="1">
+    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="17" t="s">
         <v>102</v>
       </c>
@@ -6029,7 +6026,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1">
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="17" t="s">
         <v>103</v>
       </c>
@@ -6085,18 +6082,18 @@
       <selection activeCell="G6" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="11.26953125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.140625" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.85546875" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="14" width="8.5703125" customWidth="1"/>
+    <col min="1" max="1" width="16.1796875" customWidth="1"/>
+    <col min="2" max="2" width="14.1796875" customWidth="1"/>
+    <col min="3" max="3" width="11.1796875" customWidth="1"/>
+    <col min="4" max="4" width="19.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.81640625" customWidth="1"/>
+    <col min="6" max="6" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="14" width="8.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" customHeight="1">
+    <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6105,80 +6102,80 @@
       </c>
       <c r="C1" s="12"/>
     </row>
-    <row r="2" spans="1:14" ht="15" customHeight="1">
+    <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="12"/>
       <c r="C2" s="2"/>
     </row>
-    <row r="3" spans="1:14" ht="15" customHeight="1">
+    <row r="3" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="12"/>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:14" ht="15" customHeight="1">
+    <row r="4" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="12"/>
       <c r="C4" s="2"/>
     </row>
-    <row r="5" spans="1:14" ht="15" customHeight="1">
+    <row r="5" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="12"/>
       <c r="C5" s="2"/>
     </row>
-    <row r="6" spans="1:14" ht="15" customHeight="1">
+    <row r="6" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="12"/>
       <c r="C6" s="2"/>
     </row>
-    <row r="7" spans="1:14" ht="15" customHeight="1">
+    <row r="7" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="12"/>
       <c r="C7" s="2"/>
     </row>
-    <row r="8" spans="1:14" ht="15" customHeight="1">
+    <row r="8" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="12"/>
       <c r="C8" s="2"/>
     </row>
-    <row r="9" spans="1:14" ht="15" customHeight="1">
+    <row r="9" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
     </row>
-    <row r="10" spans="1:14" ht="15" customHeight="1">
+    <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
     </row>
-    <row r="11" spans="1:14" ht="15" customHeight="1">
+    <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="57" t="s">
         <v>39</v>
       </c>
       <c r="B11" s="58"/>
       <c r="C11" s="58"/>
     </row>
-    <row r="12" spans="1:14" ht="15" customHeight="1">
+    <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="12"/>
       <c r="B12" s="12"/>
       <c r="C12" s="12"/>
     </row>
-    <row r="13" spans="1:14" ht="15" customHeight="1">
+    <row r="13" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
         <v>10</v>
       </c>
@@ -6196,7 +6193,7 @@
       <c r="M13" s="12"/>
       <c r="N13" s="12"/>
     </row>
-    <row r="14" spans="1:14" ht="15" customHeight="1">
+    <row r="14" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>74</v>
       </c>
@@ -6224,7 +6221,7 @@
       <c r="M14" s="12"/>
       <c r="N14" s="12"/>
     </row>
-    <row r="15" spans="1:14" ht="15" customHeight="1">
+    <row r="15" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12"/>
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
@@ -6240,7 +6237,7 @@
       <c r="M15" s="12"/>
       <c r="N15" s="12"/>
     </row>
-    <row r="16" spans="1:14" ht="15" customHeight="1">
+    <row r="16" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="12"/>
       <c r="B16" s="12"/>
       <c r="C16" s="12"/>
@@ -6256,7 +6253,7 @@
       <c r="M16" s="12"/>
       <c r="N16" s="12"/>
     </row>
-    <row r="17" spans="1:19" ht="15" customHeight="1">
+    <row r="17" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
         <v>11</v>
       </c>
@@ -6274,14 +6271,14 @@
       <c r="M17" s="12"/>
       <c r="N17" s="12"/>
     </row>
-    <row r="18" spans="1:19" ht="15" customHeight="1">
+    <row r="18" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="12"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
       <c r="D18" s="12"/>
       <c r="E18" s="12"/>
     </row>
-    <row r="19" spans="1:19" ht="15" customHeight="1">
+    <row r="19" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="25" t="s">
         <v>53</v>
       </c>
@@ -6301,7 +6298,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:19" ht="15" customHeight="1">
+    <row r="20" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
         <v>74</v>
       </c>
@@ -6318,10 +6315,10 @@
         <v>14</v>
       </c>
       <c r="F20" s="18" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" ht="15" customHeight="1">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
         <v>75</v>
       </c>
@@ -6338,7 +6335,7 @@
         <v>14</v>
       </c>
       <c r="F21" s="18" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="G21" s="12"/>
       <c r="H21" s="12"/>
@@ -6354,7 +6351,7 @@
       <c r="R21" s="12"/>
       <c r="S21" s="12"/>
     </row>
-    <row r="22" spans="1:19" ht="15" customHeight="1">
+    <row r="22" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
         <v>76</v>
       </c>
@@ -6371,7 +6368,7 @@
         <v>14</v>
       </c>
       <c r="F22" s="18" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="G22" s="12"/>
       <c r="H22" s="12"/>
@@ -6387,7 +6384,7 @@
       <c r="R22" s="12"/>
       <c r="S22" s="12"/>
     </row>
-    <row r="23" spans="1:19" ht="15" customHeight="1">
+    <row r="23" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
         <v>77</v>
       </c>
@@ -6404,7 +6401,7 @@
         <v>14</v>
       </c>
       <c r="F23" s="18" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="G23" s="12"/>
       <c r="H23" s="12"/>
@@ -6420,7 +6417,7 @@
       <c r="R23" s="12"/>
       <c r="S23" s="12"/>
     </row>
-    <row r="24" spans="1:19" ht="15" customHeight="1">
+    <row r="24" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
         <v>61</v>
       </c>
@@ -6437,7 +6434,7 @@
         <v>14</v>
       </c>
       <c r="F24" s="18" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="G24" s="12"/>
       <c r="H24" s="12"/>
@@ -6453,10 +6450,10 @@
       <c r="R24" s="12"/>
       <c r="S24" s="12"/>
     </row>
-    <row r="31" spans="1:19" ht="15" customHeight="1">
+    <row r="31" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C31" s="18"/>
     </row>
-    <row r="54" spans="4:14" ht="16">
+    <row r="54" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D54" s="12"/>
       <c r="E54" s="12"/>
       <c r="F54" s="12"/>
@@ -6469,7 +6466,7 @@
       <c r="M54" s="12"/>
       <c r="N54" s="12"/>
     </row>
-    <row r="55" spans="4:14" ht="16">
+    <row r="55" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D55" s="12"/>
       <c r="E55" s="12"/>
       <c r="F55" s="12"/>
@@ -6482,7 +6479,7 @@
       <c r="M55" s="12"/>
       <c r="N55" s="12"/>
     </row>
-    <row r="57" spans="4:14" ht="16">
+    <row r="57" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D57" s="12"/>
       <c r="E57" s="12"/>
       <c r="F57" s="12"/>
@@ -6495,7 +6492,7 @@
       <c r="M57" s="12"/>
       <c r="N57" s="12"/>
     </row>
-    <row r="64" spans="4:14" ht="16">
+    <row r="64" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D64" s="12"/>
       <c r="E64" s="12"/>
       <c r="F64" s="12"/>
@@ -6508,7 +6505,7 @@
       <c r="M64" s="12"/>
       <c r="N64" s="12"/>
     </row>
-    <row r="66" spans="4:14" ht="16">
+    <row r="66" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D66" s="12"/>
       <c r="E66" s="12"/>
       <c r="F66" s="12"/>
@@ -6521,7 +6518,7 @@
       <c r="M66" s="12"/>
       <c r="N66" s="12"/>
     </row>
-    <row r="67" spans="4:14" ht="16">
+    <row r="67" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D67" s="12"/>
       <c r="E67" s="12"/>
       <c r="F67" s="12"/>
@@ -6534,7 +6531,7 @@
       <c r="M67" s="12"/>
       <c r="N67" s="12"/>
     </row>
-    <row r="69" spans="4:14" ht="16">
+    <row r="69" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D69" s="12"/>
       <c r="E69" s="12"/>
       <c r="F69" s="12"/>
@@ -6547,7 +6544,7 @@
       <c r="M69" s="12"/>
       <c r="N69" s="12"/>
     </row>
-    <row r="70" spans="4:14" ht="16">
+    <row r="70" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D70" s="12"/>
       <c r="E70" s="12"/>
       <c r="F70" s="12"/>
@@ -6560,7 +6557,7 @@
       <c r="M70" s="12"/>
       <c r="N70" s="12"/>
     </row>
-    <row r="72" spans="4:14" ht="16">
+    <row r="72" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D72" s="12"/>
       <c r="E72" s="12"/>
       <c r="F72" s="12"/>
@@ -6573,7 +6570,7 @@
       <c r="M72" s="12"/>
       <c r="N72" s="12"/>
     </row>
-    <row r="73" spans="4:14" ht="16">
+    <row r="73" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D73" s="12"/>
       <c r="E73" s="12"/>
       <c r="F73" s="12"/>
@@ -6586,7 +6583,7 @@
       <c r="M73" s="12"/>
       <c r="N73" s="12"/>
     </row>
-    <row r="75" spans="4:14" ht="16">
+    <row r="75" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D75" s="12"/>
       <c r="E75" s="12"/>
       <c r="F75" s="12"/>
@@ -6599,7 +6596,7 @@
       <c r="M75" s="12"/>
       <c r="N75" s="12"/>
     </row>
-    <row r="81" spans="4:14" ht="16">
+    <row r="81" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D81" s="12"/>
       <c r="E81" s="12"/>
       <c r="F81" s="12"/>
@@ -6612,7 +6609,7 @@
       <c r="M81" s="12"/>
       <c r="N81" s="12"/>
     </row>
-    <row r="83" spans="4:14" ht="16">
+    <row r="83" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D83" s="12"/>
       <c r="E83" s="12"/>
       <c r="F83" s="12"/>
@@ -6625,7 +6622,7 @@
       <c r="M83" s="12"/>
       <c r="N83" s="12"/>
     </row>
-    <row r="84" spans="4:14" ht="16">
+    <row r="84" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D84" s="12"/>
       <c r="E84" s="12"/>
       <c r="F84" s="12"/>
@@ -6638,7 +6635,7 @@
       <c r="M84" s="12"/>
       <c r="N84" s="12"/>
     </row>
-    <row r="85" spans="4:14" ht="16">
+    <row r="85" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D85" s="12"/>
       <c r="E85" s="12"/>
       <c r="F85" s="12"/>
@@ -6651,7 +6648,7 @@
       <c r="M85" s="12"/>
       <c r="N85" s="12"/>
     </row>
-    <row r="86" spans="4:14" ht="16">
+    <row r="86" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D86" s="12"/>
       <c r="E86" s="12"/>
       <c r="F86" s="12"/>
@@ -6664,7 +6661,7 @@
       <c r="M86" s="12"/>
       <c r="N86" s="12"/>
     </row>
-    <row r="87" spans="4:14" ht="16">
+    <row r="87" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D87" s="12"/>
       <c r="E87" s="12"/>
       <c r="F87" s="12"/>
@@ -6677,7 +6674,7 @@
       <c r="M87" s="12"/>
       <c r="N87" s="12"/>
     </row>
-    <row r="89" spans="4:14" ht="16">
+    <row r="89" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D89" s="12"/>
       <c r="E89" s="12"/>
       <c r="F89" s="12"/>
@@ -6690,7 +6687,7 @@
       <c r="M89" s="12"/>
       <c r="N89" s="12"/>
     </row>
-    <row r="90" spans="4:14" ht="16">
+    <row r="90" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D90" s="12"/>
       <c r="E90" s="12"/>
       <c r="F90" s="12"/>
@@ -6732,89 +6729,89 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CA9DCBD-8B69-4216-9D15-36F8BCA7070C}">
   <dimension ref="A1:Q91"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="11.26953125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.140625" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" customWidth="1"/>
-    <col min="3" max="3" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="12" width="8.5703125" customWidth="1"/>
+    <col min="1" max="1" width="16.1796875" customWidth="1"/>
+    <col min="2" max="2" width="11.1796875" customWidth="1"/>
+    <col min="3" max="3" width="19.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.81640625" customWidth="1"/>
+    <col min="5" max="5" width="17.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="12" width="8.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" customHeight="1">
+    <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="12"/>
     </row>
-    <row r="2" spans="1:12" ht="15" customHeight="1">
+    <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2"/>
     </row>
-    <row r="3" spans="1:12" ht="15" customHeight="1">
+    <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="2"/>
     </row>
-    <row r="4" spans="1:12" ht="15" customHeight="1">
+    <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="2"/>
     </row>
-    <row r="5" spans="1:12" ht="15" customHeight="1">
+    <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="2"/>
     </row>
-    <row r="6" spans="1:12" ht="15" customHeight="1">
+    <row r="6" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="2"/>
     </row>
-    <row r="7" spans="1:12" ht="15" customHeight="1">
+    <row r="7" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="2"/>
     </row>
-    <row r="8" spans="1:12" ht="15" customHeight="1">
+    <row r="8" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="2"/>
     </row>
-    <row r="9" spans="1:12" ht="15" customHeight="1">
+    <row r="9" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5"/>
       <c r="B9" s="6"/>
     </row>
-    <row r="10" spans="1:12" ht="15" customHeight="1">
+    <row r="10" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="8"/>
     </row>
-    <row r="11" spans="1:12" ht="15" customHeight="1">
+    <row r="11" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="57" t="s">
         <v>39</v>
       </c>
       <c r="B11" s="58"/>
     </row>
-    <row r="12" spans="1:12" ht="15" customHeight="1">
+    <row r="12" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="12"/>
       <c r="B12" s="12"/>
     </row>
-    <row r="13" spans="1:12" ht="15" customHeight="1">
+    <row r="13" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
         <v>10</v>
       </c>
@@ -6830,7 +6827,7 @@
       <c r="K13" s="12"/>
       <c r="L13" s="12"/>
     </row>
-    <row r="14" spans="1:12" ht="15" customHeight="1">
+    <row r="14" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>64</v>
       </c>
@@ -6854,7 +6851,7 @@
       <c r="K14" s="12"/>
       <c r="L14" s="12"/>
     </row>
-    <row r="15" spans="1:12" ht="15" customHeight="1">
+    <row r="15" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12"/>
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
@@ -6868,7 +6865,7 @@
       <c r="K15" s="12"/>
       <c r="L15" s="12"/>
     </row>
-    <row r="16" spans="1:12" ht="15" customHeight="1">
+    <row r="16" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="12"/>
       <c r="B16" s="12"/>
       <c r="C16" s="12"/>
@@ -6882,7 +6879,7 @@
       <c r="K16" s="12"/>
       <c r="L16" s="12"/>
     </row>
-    <row r="17" spans="1:17" ht="15" customHeight="1">
+    <row r="17" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
         <v>11</v>
       </c>
@@ -6898,13 +6895,13 @@
       <c r="K17" s="12"/>
       <c r="L17" s="12"/>
     </row>
-    <row r="18" spans="1:17" ht="15" customHeight="1">
+    <row r="18" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="12"/>
       <c r="B18" s="6"/>
       <c r="C18" s="12"/>
       <c r="D18" s="12"/>
     </row>
-    <row r="19" spans="1:17" ht="15" customHeight="1">
+    <row r="19" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="25" t="s">
         <v>55</v>
       </c>
@@ -6921,7 +6918,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:17" ht="15" customHeight="1">
+    <row r="20" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="17" t="s">
         <v>64</v>
       </c>
@@ -6935,10 +6932,10 @@
         <v>86</v>
       </c>
       <c r="E20" s="18" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" ht="15" customHeight="1">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="17" t="s">
         <v>65</v>
       </c>
@@ -6952,7 +6949,7 @@
         <v>86</v>
       </c>
       <c r="E21" s="17" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="F21" s="12"/>
       <c r="G21" s="12"/>
@@ -6967,7 +6964,7 @@
       <c r="P21" s="12"/>
       <c r="Q21" s="12"/>
     </row>
-    <row r="22" spans="1:17" ht="15" customHeight="1">
+    <row r="22" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="17" t="s">
         <v>66</v>
       </c>
@@ -6981,7 +6978,7 @@
         <v>86</v>
       </c>
       <c r="E22" s="17" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="F22" s="12"/>
       <c r="G22" s="12"/>
@@ -6996,7 +6993,7 @@
       <c r="P22" s="12"/>
       <c r="Q22" s="12"/>
     </row>
-    <row r="23" spans="1:17" ht="15" customHeight="1">
+    <row r="23" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="17" t="s">
         <v>67</v>
       </c>
@@ -7010,7 +7007,7 @@
         <v>86</v>
       </c>
       <c r="E23" s="17" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="F23" s="12"/>
       <c r="G23" s="12"/>
@@ -7025,7 +7022,7 @@
       <c r="P23" s="12"/>
       <c r="Q23" s="12"/>
     </row>
-    <row r="24" spans="1:17" ht="15" customHeight="1">
+    <row r="24" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="17" t="s">
         <v>68</v>
       </c>
@@ -7039,7 +7036,7 @@
         <v>86</v>
       </c>
       <c r="E24" s="17" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="F24" s="12"/>
       <c r="G24" s="12"/>
@@ -7054,7 +7051,7 @@
       <c r="P24" s="12"/>
       <c r="Q24" s="12"/>
     </row>
-    <row r="55" spans="3:12" ht="16">
+    <row r="55" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C55" s="12"/>
       <c r="D55" s="12"/>
       <c r="E55" s="12"/>
@@ -7066,7 +7063,7 @@
       <c r="K55" s="12"/>
       <c r="L55" s="12"/>
     </row>
-    <row r="56" spans="3:12" ht="16">
+    <row r="56" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C56" s="12"/>
       <c r="D56" s="12"/>
       <c r="E56" s="12"/>
@@ -7078,7 +7075,7 @@
       <c r="K56" s="12"/>
       <c r="L56" s="12"/>
     </row>
-    <row r="58" spans="3:12" ht="16">
+    <row r="58" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C58" s="12"/>
       <c r="D58" s="12"/>
       <c r="E58" s="12"/>
@@ -7090,7 +7087,7 @@
       <c r="K58" s="12"/>
       <c r="L58" s="12"/>
     </row>
-    <row r="65" spans="3:12" ht="16">
+    <row r="65" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C65" s="12"/>
       <c r="D65" s="12"/>
       <c r="E65" s="12"/>
@@ -7102,7 +7099,7 @@
       <c r="K65" s="12"/>
       <c r="L65" s="12"/>
     </row>
-    <row r="67" spans="3:12" ht="16">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C67" s="12"/>
       <c r="D67" s="12"/>
       <c r="E67" s="12"/>
@@ -7114,7 +7111,7 @@
       <c r="K67" s="12"/>
       <c r="L67" s="12"/>
     </row>
-    <row r="68" spans="3:12" ht="16">
+    <row r="68" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C68" s="12"/>
       <c r="D68" s="12"/>
       <c r="E68" s="12"/>
@@ -7126,7 +7123,7 @@
       <c r="K68" s="12"/>
       <c r="L68" s="12"/>
     </row>
-    <row r="70" spans="3:12" ht="16">
+    <row r="70" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C70" s="12"/>
       <c r="D70" s="12"/>
       <c r="E70" s="12"/>
@@ -7138,7 +7135,7 @@
       <c r="K70" s="12"/>
       <c r="L70" s="12"/>
     </row>
-    <row r="71" spans="3:12" ht="16">
+    <row r="71" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C71" s="12"/>
       <c r="D71" s="12"/>
       <c r="E71" s="12"/>
@@ -7150,7 +7147,7 @@
       <c r="K71" s="12"/>
       <c r="L71" s="12"/>
     </row>
-    <row r="73" spans="3:12" ht="16">
+    <row r="73" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C73" s="12"/>
       <c r="D73" s="12"/>
       <c r="E73" s="12"/>
@@ -7162,7 +7159,7 @@
       <c r="K73" s="12"/>
       <c r="L73" s="12"/>
     </row>
-    <row r="74" spans="3:12" ht="16">
+    <row r="74" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C74" s="12"/>
       <c r="D74" s="12"/>
       <c r="E74" s="12"/>
@@ -7174,7 +7171,7 @@
       <c r="K74" s="12"/>
       <c r="L74" s="12"/>
     </row>
-    <row r="76" spans="3:12" ht="16">
+    <row r="76" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C76" s="12"/>
       <c r="D76" s="12"/>
       <c r="E76" s="12"/>
@@ -7186,7 +7183,7 @@
       <c r="K76" s="12"/>
       <c r="L76" s="12"/>
     </row>
-    <row r="82" spans="3:12" ht="16">
+    <row r="82" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C82" s="12"/>
       <c r="D82" s="12"/>
       <c r="E82" s="12"/>
@@ -7198,7 +7195,7 @@
       <c r="K82" s="12"/>
       <c r="L82" s="12"/>
     </row>
-    <row r="84" spans="3:12" ht="16">
+    <row r="84" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C84" s="12"/>
       <c r="D84" s="12"/>
       <c r="E84" s="12"/>
@@ -7210,7 +7207,7 @@
       <c r="K84" s="12"/>
       <c r="L84" s="12"/>
     </row>
-    <row r="85" spans="3:12" ht="16">
+    <row r="85" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C85" s="12"/>
       <c r="D85" s="12"/>
       <c r="E85" s="12"/>
@@ -7222,7 +7219,7 @@
       <c r="K85" s="12"/>
       <c r="L85" s="12"/>
     </row>
-    <row r="86" spans="3:12" ht="16">
+    <row r="86" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C86" s="12"/>
       <c r="D86" s="12"/>
       <c r="E86" s="12"/>
@@ -7234,7 +7231,7 @@
       <c r="K86" s="12"/>
       <c r="L86" s="12"/>
     </row>
-    <row r="87" spans="3:12" ht="16">
+    <row r="87" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C87" s="12"/>
       <c r="D87" s="12"/>
       <c r="E87" s="12"/>
@@ -7246,7 +7243,7 @@
       <c r="K87" s="12"/>
       <c r="L87" s="12"/>
     </row>
-    <row r="88" spans="3:12" ht="16">
+    <row r="88" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C88" s="12"/>
       <c r="D88" s="12"/>
       <c r="E88" s="12"/>
@@ -7258,7 +7255,7 @@
       <c r="K88" s="12"/>
       <c r="L88" s="12"/>
     </row>
-    <row r="90" spans="3:12" ht="16">
+    <row r="90" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C90" s="12"/>
       <c r="D90" s="12"/>
       <c r="E90" s="12"/>
@@ -7270,7 +7267,7 @@
       <c r="K90" s="12"/>
       <c r="L90" s="12"/>
     </row>
-    <row r="91" spans="3:12" ht="16">
+    <row r="91" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C91" s="12"/>
       <c r="D91" s="12"/>
       <c r="E91" s="12"/>
@@ -7320,14 +7317,14 @@
       <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="16"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="60.5703125" style="30" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="52.42578125" style="30" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.7109375" style="30"/>
+    <col min="1" max="1" width="60.54296875" style="30" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52.453125" style="30" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.7265625" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="47" t="s">
         <v>113</v>
       </c>
@@ -7335,7 +7332,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>14</v>
       </c>
@@ -7343,7 +7340,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>86</v>
       </c>
@@ -7351,7 +7348,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>116</v>
       </c>
@@ -7359,7 +7356,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
         <v>129</v>
       </c>
@@ -7367,7 +7364,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
         <v>115</v>
       </c>
@@ -7375,7 +7372,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
         <v>130</v>
       </c>
@@ -7383,7 +7380,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
         <v>131</v>
       </c>
@@ -7391,13 +7388,13 @@
         <v>128</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="49"/>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="49"/>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="49"/>
     </row>
   </sheetData>
@@ -7414,13 +7411,13 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="16"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="31" max="31" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="13.08984375" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="44" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="47" t="s">
         <v>113</v>
       </c>
@@ -7428,12 +7425,12 @@
         <v>114</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="B2" s="48" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -7459,28 +7456,28 @@
       <selection pane="bottomRight" activeCell="A61" sqref="A61:XFD61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="11.26953125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" customWidth="1"/>
-    <col min="6" max="6" width="8.42578125" customWidth="1"/>
-    <col min="7" max="7" width="9.42578125" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.28515625" customWidth="1"/>
-    <col min="10" max="10" width="17.42578125" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" customWidth="1"/>
-    <col min="12" max="12" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.42578125" customWidth="1"/>
-    <col min="14" max="14" width="8.5703125" customWidth="1"/>
-    <col min="15" max="15" width="7.140625" customWidth="1"/>
-    <col min="16" max="16" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="32" width="8.5703125" customWidth="1"/>
+    <col min="1" max="1" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.26953125" customWidth="1"/>
+    <col min="6" max="6" width="8.453125" customWidth="1"/>
+    <col min="7" max="7" width="9.36328125" customWidth="1"/>
+    <col min="8" max="8" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.26953125" customWidth="1"/>
+    <col min="10" max="10" width="17.36328125" customWidth="1"/>
+    <col min="11" max="11" width="14.6328125" customWidth="1"/>
+    <col min="12" max="12" width="13.90625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.453125" customWidth="1"/>
+    <col min="14" max="14" width="8.6328125" customWidth="1"/>
+    <col min="15" max="15" width="7.1796875" customWidth="1"/>
+    <col min="16" max="16" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="17" max="32" width="8.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" customHeight="1">
+    <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="23" t="s">
         <v>20</v>
       </c>
@@ -7530,12 +7527,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="30" customFormat="1" ht="15" customHeight="1">
+    <row r="2" spans="1:16" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="C2" s="30" t="s">
         <v>23</v>
@@ -7567,12 +7564,12 @@
       </c>
       <c r="P2" s="17"/>
     </row>
-    <row r="3" spans="1:16" s="30" customFormat="1" ht="15" customHeight="1">
+    <row r="3" spans="1:16" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>60</v>
@@ -7607,12 +7604,12 @@
       <c r="O3" s="17"/>
       <c r="P3" s="17"/>
     </row>
-    <row r="4" spans="1:16" s="30" customFormat="1" ht="15" customHeight="1">
+    <row r="4" spans="1:16" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="C4" s="17" t="s">
         <v>91</v>
@@ -7647,15 +7644,15 @@
       <c r="O4" s="17"/>
       <c r="P4" s="17"/>
     </row>
-    <row r="5" spans="1:16" s="30" customFormat="1" ht="15" customHeight="1">
+    <row r="5" spans="1:16" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="B5" s="32" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="D5" s="14" t="s">
         <v>62</v>
@@ -7687,9 +7684,9 @@
       <c r="O5" s="17"/>
       <c r="P5" s="17"/>
     </row>
-    <row r="6" spans="1:16" s="30" customFormat="1" ht="15" customHeight="1">
+    <row r="6" spans="1:16" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="B6" s="32" t="s">
         <v>31</v>
@@ -7724,12 +7721,12 @@
       </c>
       <c r="P6" s="17"/>
     </row>
-    <row r="7" spans="1:16" s="30" customFormat="1" ht="15" customHeight="1">
+    <row r="7" spans="1:16" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="B7" s="32" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="C7" s="30" t="s">
         <v>23</v>
@@ -7761,12 +7758,12 @@
       </c>
       <c r="P7" s="17"/>
     </row>
-    <row r="8" spans="1:16" s="30" customFormat="1" ht="15" customHeight="1">
+    <row r="8" spans="1:16" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="B8" s="32" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C8" s="17" t="s">
         <v>60</v>
@@ -7798,15 +7795,15 @@
       </c>
       <c r="P8" s="17"/>
     </row>
-    <row r="9" spans="1:16" s="30" customFormat="1" ht="15" customHeight="1">
+    <row r="9" spans="1:16" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="B9" s="32" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="D9" s="14" t="s">
         <v>51</v>
@@ -7835,12 +7832,12 @@
       </c>
       <c r="P9" s="17"/>
     </row>
-    <row r="10" spans="1:16" s="30" customFormat="1" ht="15" customHeight="1">
+    <row r="10" spans="1:16" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="B10" s="32" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="C10" s="17" t="s">
         <v>91</v>
@@ -7872,15 +7869,15 @@
       </c>
       <c r="P10" s="17"/>
     </row>
-    <row r="11" spans="1:16" s="30" customFormat="1" ht="15" customHeight="1">
+    <row r="11" spans="1:16" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="B11" s="32" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="D11" s="14" t="s">
         <v>51</v>
@@ -7909,15 +7906,15 @@
       </c>
       <c r="P11" s="17"/>
     </row>
-    <row r="12" spans="1:16" s="30" customFormat="1" ht="15" customHeight="1">
+    <row r="12" spans="1:16" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="B12" s="32" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="C12" s="52" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="D12" s="14" t="s">
         <v>62</v>
@@ -7947,9 +7944,9 @@
       <c r="M12" s="17"/>
       <c r="P12" s="17"/>
     </row>
-    <row r="13" spans="1:16" s="30" customFormat="1" ht="15" customHeight="1">
+    <row r="13" spans="1:16" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="B13" s="32" t="s">
         <v>31</v>
@@ -7984,9 +7981,9 @@
       </c>
       <c r="P13" s="17"/>
     </row>
-    <row r="14" spans="1:16" s="30" customFormat="1" ht="15" customHeight="1">
+    <row r="14" spans="1:16" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="B14" s="32" t="s">
         <v>139</v>
@@ -8021,15 +8018,15 @@
       </c>
       <c r="P14" s="17"/>
     </row>
-    <row r="15" spans="1:16" s="30" customFormat="1" ht="15" customHeight="1">
+    <row r="15" spans="1:16" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="B15" s="32" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="C15" s="52" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="D15" s="14" t="s">
         <v>62</v>
@@ -8058,15 +8055,15 @@
       </c>
       <c r="P15" s="17"/>
     </row>
-    <row r="16" spans="1:16" s="30" customFormat="1" ht="15" customHeight="1">
+    <row r="16" spans="1:16" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="17" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="B16" s="32" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="C16" s="30" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="D16" s="14" t="s">
         <v>51</v>
@@ -8095,15 +8092,15 @@
       </c>
       <c r="P16" s="17"/>
     </row>
-    <row r="17" spans="1:16" s="30" customFormat="1" ht="15" customHeight="1">
+    <row r="17" spans="1:16" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="17" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="B17" s="32" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="C17" s="30" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="D17" s="14" t="s">
         <v>51</v>
@@ -8132,15 +8129,15 @@
       </c>
       <c r="P17" s="17"/>
     </row>
-    <row r="18" spans="1:16" s="30" customFormat="1" ht="15" customHeight="1">
+    <row r="18" spans="1:16" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="30" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="B18" s="32" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="C18" s="52" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="D18" s="14" t="s">
         <v>62</v>
@@ -8168,9 +8165,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:16" s="30" customFormat="1" ht="15" customHeight="1">
+    <row r="19" spans="1:16" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="30" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="B19" s="32" t="s">
         <v>31</v>
@@ -8204,12 +8201,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:16" s="30" customFormat="1" ht="15" customHeight="1">
+    <row r="20" spans="1:16" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="30" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="B20" s="32" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="C20" s="30" t="s">
         <v>23</v>
@@ -8240,15 +8237,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:16" s="30" customFormat="1" ht="15" customHeight="1">
+    <row r="21" spans="1:16" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="30" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="B21" s="32" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="C21" s="52" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="D21" s="14" t="s">
         <v>62</v>
@@ -8276,15 +8273,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:16" s="30" customFormat="1" ht="15" customHeight="1">
+    <row r="22" spans="1:16" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="30" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="B22" s="32" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="C22" s="52" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="D22" s="14" t="s">
         <v>62</v>
@@ -8312,15 +8309,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:16" s="30" customFormat="1" ht="15" customHeight="1">
+    <row r="23" spans="1:16" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="30" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="B23" s="32" t="s">
         <v>53</v>
       </c>
       <c r="C23" s="52" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="D23" s="14" t="s">
         <v>62</v>
@@ -8348,15 +8345,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:16" s="30" customFormat="1" ht="15" customHeight="1">
+    <row r="24" spans="1:16" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="30" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="B24" s="32" t="s">
         <v>138</v>
       </c>
       <c r="C24" s="52" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="D24" s="14" t="s">
         <v>62</v>
@@ -8384,9 +8381,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:16" s="30" customFormat="1" ht="15" customHeight="1">
+    <row r="25" spans="1:16" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="30" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="B25" s="32" t="s">
         <v>31</v>
@@ -8420,12 +8417,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:16" s="30" customFormat="1" ht="15" customHeight="1">
+    <row r="26" spans="1:16" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="17" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="B26" s="32" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="C26" s="30" t="s">
         <v>23</v>
@@ -8460,12 +8457,12 @@
       <c r="O26" s="17"/>
       <c r="P26" s="17"/>
     </row>
-    <row r="27" spans="1:16" s="30" customFormat="1" ht="15" customHeight="1">
+    <row r="27" spans="1:16" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="17" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="B27" s="32" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="C27" s="17" t="s">
         <v>60</v>
@@ -8500,12 +8497,12 @@
       <c r="O27" s="17"/>
       <c r="P27" s="17"/>
     </row>
-    <row r="28" spans="1:16" s="30" customFormat="1" ht="15" customHeight="1">
+    <row r="28" spans="1:16" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="17" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="B28" s="32" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="C28" s="17" t="s">
         <v>91</v>
@@ -8536,15 +8533,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:16" s="30" customFormat="1" ht="15" customHeight="1">
+    <row r="29" spans="1:16" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="17" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="B29" s="32" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C29" s="30" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="D29" s="14" t="s">
         <v>51</v>
@@ -8572,9 +8569,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:16" s="30" customFormat="1" ht="15" customHeight="1">
+    <row r="30" spans="1:16" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="30" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="B30" s="33" t="s">
         <v>83</v>
@@ -8618,9 +8615,9 @@
       </c>
       <c r="P30" s="17"/>
     </row>
-    <row r="31" spans="1:16" s="30" customFormat="1" ht="15" customHeight="1">
+    <row r="31" spans="1:16" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="30" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="B31" s="32" t="s">
         <v>31</v>
@@ -8654,12 +8651,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:16" s="30" customFormat="1" ht="15" customHeight="1">
+    <row r="32" spans="1:16" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="17" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="B32" s="32" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="C32" s="30" t="s">
         <v>23</v>
@@ -8690,15 +8687,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:16" s="30" customFormat="1" ht="15" customHeight="1">
+    <row r="33" spans="1:16" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="17" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="B33" s="32" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="C33" s="30" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="D33" s="14" t="s">
         <v>51</v>
@@ -8726,12 +8723,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:16" s="30" customFormat="1" ht="15" customHeight="1">
+    <row r="34" spans="1:16" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="17" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="B34" s="32" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="C34" s="30" t="s">
         <v>91</v>
@@ -8762,9 +8759,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:16" s="30" customFormat="1" ht="15" customHeight="1">
+    <row r="35" spans="1:16" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="17" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="B35" s="32" t="s">
         <v>31</v>
@@ -8798,9 +8795,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:16" s="30" customFormat="1" ht="15" customHeight="1">
+    <row r="36" spans="1:16" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="17" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="B36" s="32" t="s">
         <v>12</v>
@@ -8834,7 +8831,7 @@
         <v>0</v>
       </c>
       <c r="M36" s="30" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="N36" s="30" t="s">
         <v>120</v>
@@ -8844,12 +8841,12 @@
       </c>
       <c r="P36" s="17"/>
     </row>
-    <row r="37" spans="1:16" s="30" customFormat="1" ht="15" customHeight="1">
+    <row r="37" spans="1:16" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="17" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B37" s="32" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="C37" s="30" t="s">
         <v>23</v>
@@ -8880,12 +8877,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:16" s="30" customFormat="1" ht="15" customHeight="1">
+    <row r="38" spans="1:16" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="17" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B38" s="32" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="C38" s="17" t="s">
         <v>60</v>
@@ -8916,12 +8913,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:16" s="30" customFormat="1" ht="15" customHeight="1">
+    <row r="39" spans="1:16" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="17" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B39" s="32" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="C39" s="17" t="s">
         <v>91</v>
@@ -8952,9 +8949,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:16" s="30" customFormat="1" ht="15" customHeight="1">
+    <row r="40" spans="1:16" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="17" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B40" s="32" t="s">
         <v>31</v>
@@ -8988,9 +8985,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:16" s="30" customFormat="1" ht="15" customHeight="1">
+    <row r="41" spans="1:16" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="17" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B41" s="33" t="s">
         <v>83</v>
@@ -9034,7 +9031,7 @@
       </c>
       <c r="P41" s="17"/>
     </row>
-    <row r="42" spans="1:16" s="30" customFormat="1" ht="15" customHeight="1">
+    <row r="42" spans="1:16" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="17" t="s">
         <v>133</v>
       </c>
@@ -9070,7 +9067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:16" s="30" customFormat="1" ht="15" customHeight="1">
+    <row r="43" spans="1:16" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="17" t="s">
         <v>133</v>
       </c>
@@ -9078,7 +9075,7 @@
         <v>139</v>
       </c>
       <c r="C43" s="17" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="D43" s="14" t="s">
         <v>51</v>
@@ -9110,7 +9107,7 @@
       <c r="O43" s="17"/>
       <c r="P43" s="18"/>
     </row>
-    <row r="44" spans="1:16" s="30" customFormat="1" ht="15" customHeight="1">
+    <row r="44" spans="1:16" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="17" t="s">
         <v>133</v>
       </c>
@@ -9118,7 +9115,7 @@
         <v>88</v>
       </c>
       <c r="C44" s="17" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="D44" s="14" t="s">
         <v>62</v>
@@ -9146,7 +9143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:16" s="30" customFormat="1" ht="15" customHeight="1">
+    <row r="45" spans="1:16" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="17" t="s">
         <v>133</v>
       </c>
@@ -9182,7 +9179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:16" s="30" customFormat="1" ht="15" customHeight="1">
+    <row r="46" spans="1:16" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="17" t="s">
         <v>133</v>
       </c>
@@ -9190,7 +9187,7 @@
         <v>141</v>
       </c>
       <c r="C46" s="30" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="D46" s="14" t="s">
         <v>51</v>
@@ -9218,7 +9215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:16" s="30" customFormat="1" ht="15" customHeight="1">
+    <row r="47" spans="1:16" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="17" t="s">
         <v>133</v>
       </c>
@@ -9258,7 +9255,7 @@
       <c r="O47" s="20"/>
       <c r="P47" s="20"/>
     </row>
-    <row r="48" spans="1:16" s="30" customFormat="1" ht="15" customHeight="1">
+    <row r="48" spans="1:16" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="30" t="s">
         <v>87</v>
       </c>
@@ -9294,7 +9291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:16" s="30" customFormat="1" ht="15" customHeight="1">
+    <row r="49" spans="1:16" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="30" t="s">
         <v>87</v>
       </c>
@@ -9330,7 +9327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:16" s="30" customFormat="1" ht="15" customHeight="1">
+    <row r="50" spans="1:16" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="30" t="s">
         <v>87</v>
       </c>
@@ -9366,7 +9363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:16" s="30" customFormat="1" ht="15" customHeight="1">
+    <row r="51" spans="1:16" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="30" t="s">
         <v>87</v>
       </c>
@@ -9402,7 +9399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:16" s="30" customFormat="1" ht="15" customHeight="1">
+    <row r="52" spans="1:16" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="30" t="s">
         <v>87</v>
       </c>
@@ -9438,7 +9435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:16" s="30" customFormat="1" ht="15" customHeight="1">
+    <row r="53" spans="1:16" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="30" t="s">
         <v>87</v>
       </c>
@@ -9484,7 +9481,7 @@
       </c>
       <c r="P53" s="17"/>
     </row>
-    <row r="54" spans="1:16" ht="15" customHeight="1">
+    <row r="54" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>50</v>
       </c>
@@ -9520,7 +9517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:16" ht="15" customHeight="1">
+    <row r="55" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>50</v>
       </c>
@@ -9528,7 +9525,7 @@
         <v>55</v>
       </c>
       <c r="C55" s="17" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="D55" s="14" t="s">
         <v>62</v>
@@ -9556,7 +9553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:16" ht="15" customHeight="1">
+    <row r="56" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>50</v>
       </c>
@@ -9592,7 +9589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:16" ht="15" customHeight="1">
+    <row r="57" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>50</v>
       </c>
@@ -9628,7 +9625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:16" s="30" customFormat="1" ht="15" customHeight="1">
+    <row r="58" spans="1:16" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="30" t="s">
         <v>50</v>
       </c>
@@ -9674,7 +9671,7 @@
       </c>
       <c r="P58" s="17"/>
     </row>
-    <row r="59" spans="1:16" s="30" customFormat="1" ht="15" customHeight="1">
+    <row r="59" spans="1:16" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="17" t="s">
         <v>50</v>
       </c>
@@ -9713,7 +9710,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="60" spans="1:16" ht="15" customHeight="1">
+    <row r="60" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>54</v>
       </c>
@@ -9749,7 +9746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:16" ht="15" customHeight="1">
+    <row r="61" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>54</v>
       </c>
@@ -9785,7 +9782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:16" ht="15" customHeight="1">
+    <row r="62" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>54</v>
       </c>
@@ -9821,7 +9818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:16" s="30" customFormat="1" ht="15" customHeight="1">
+    <row r="63" spans="1:16" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="30" t="s">
         <v>54</v>
       </c>
@@ -9867,7 +9864,7 @@
       </c>
       <c r="P63" s="17"/>
     </row>
-    <row r="64" spans="1:16" s="30" customFormat="1" ht="15" customHeight="1">
+    <row r="64" spans="1:16" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="17" t="s">
         <v>54</v>
       </c>
@@ -10596,19 +10593,19 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11.26953125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.140625" style="30" customWidth="1"/>
-    <col min="2" max="2" width="22.5703125" style="30" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" style="30" customWidth="1"/>
-    <col min="4" max="4" width="37.28515625" style="30" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" style="30" customWidth="1"/>
-    <col min="6" max="6" width="19.85546875" style="30" bestFit="1" customWidth="1"/>
-    <col min="7" max="15" width="8.5703125" style="30" customWidth="1"/>
-    <col min="16" max="16384" width="11.28515625" style="30"/>
+    <col min="1" max="1" width="16.1796875" style="30" customWidth="1"/>
+    <col min="2" max="2" width="22.6328125" style="30" customWidth="1"/>
+    <col min="3" max="3" width="11.81640625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="37.26953125" style="30" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.26953125" style="30" customWidth="1"/>
+    <col min="6" max="6" width="19.81640625" style="30" bestFit="1" customWidth="1"/>
+    <col min="7" max="15" width="8.54296875" style="30" customWidth="1"/>
+    <col min="16" max="16384" width="11.26953125" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" customHeight="1">
+    <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10617,63 +10614,63 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15" customHeight="1">
+    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="53"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:5" ht="15" customHeight="1">
+    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="54"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5" ht="15" customHeight="1">
+    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="53"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" ht="15" customHeight="1">
+    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="53"/>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:5" ht="15" customHeight="1">
+    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="53"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:5" ht="15" customHeight="1">
+    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="53"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:5" ht="15" customHeight="1">
+    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="53"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:5" ht="15" customHeight="1">
+    <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
     </row>
-    <row r="10" spans="1:5" ht="15" customHeight="1">
+    <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>9</v>
       </c>
@@ -10682,7 +10679,7 @@
       <c r="D10" s="8"/>
       <c r="E10" s="51"/>
     </row>
-    <row r="11" spans="1:5" ht="15" customHeight="1">
+    <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="57" t="s">
         <v>39</v>
       </c>
@@ -10691,8 +10688,8 @@
       <c r="D11" s="58"/>
       <c r="E11" s="58"/>
     </row>
-    <row r="12" spans="1:5" ht="15" customHeight="1"/>
-    <row r="13" spans="1:5" ht="15" customHeight="1">
+    <row r="12" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
         <v>10</v>
       </c>
@@ -10701,128 +10698,128 @@
       <c r="D13" s="11"/>
       <c r="E13" s="11"/>
     </row>
-    <row r="14" spans="1:5" ht="15" customHeight="1">
+    <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="15" customHeight="1"/>
-    <row r="16" spans="1:5" ht="15" customHeight="1">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="2" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="15" customHeight="1">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
         <v>11</v>
       </c>
       <c r="B17" s="55" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="C17" s="5"/>
     </row>
-    <row r="18" spans="1:5" ht="15" customHeight="1">
+    <row r="18" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
     </row>
-    <row r="19" spans="1:5" ht="15" customHeight="1">
+    <row r="19" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="11" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="E19" s="11" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15" customHeight="1">
+    <row r="20" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="17" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="D20" s="30" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="E20" s="17" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="15" customHeight="1">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="17" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="D21" s="30" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="E21" s="17" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="15" customHeight="1">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="17" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="B22" s="17" t="s">
+        <v>306</v>
+      </c>
+      <c r="C22" s="30" t="s">
+        <v>307</v>
+      </c>
+      <c r="D22" s="30" t="s">
+        <v>308</v>
+      </c>
+      <c r="E22" s="17" t="s">
         <v>302</v>
       </c>
-      <c r="C22" s="30" t="s">
-        <v>303</v>
-      </c>
-      <c r="D22" s="30" t="s">
-        <v>304</v>
-      </c>
-      <c r="E22" s="17" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="15" customHeight="1">
+    </row>
+    <row r="23" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="17" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="B23" s="30" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="C23" s="30" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="D23" s="30" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="E23" s="17" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="15" customHeight="1"/>
+        <v>302</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A11:E11"/>
@@ -10847,20 +10844,20 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11.26953125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.140625" style="30" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" style="30" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" style="30" customWidth="1"/>
-    <col min="4" max="4" width="56.7109375" style="30" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" style="30" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" style="30" customWidth="1"/>
-    <col min="7" max="7" width="19.85546875" style="30" bestFit="1" customWidth="1"/>
-    <col min="8" max="16" width="8.5703125" style="30" customWidth="1"/>
-    <col min="17" max="16384" width="11.28515625" style="30"/>
+    <col min="1" max="1" width="16.1796875" style="30" customWidth="1"/>
+    <col min="2" max="2" width="10.7265625" style="30" customWidth="1"/>
+    <col min="3" max="3" width="11.81640625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="56.7265625" style="30" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.1796875" style="30" customWidth="1"/>
+    <col min="6" max="6" width="15.26953125" style="30" customWidth="1"/>
+    <col min="7" max="7" width="19.81640625" style="30" bestFit="1" customWidth="1"/>
+    <col min="8" max="16" width="8.54296875" style="30" customWidth="1"/>
+    <col min="17" max="16384" width="11.26953125" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" customHeight="1">
+    <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10869,7 +10866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -10877,7 +10874,7 @@
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:6" ht="15" customHeight="1">
+    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -10885,7 +10882,7 @@
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
@@ -10893,7 +10890,7 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1">
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
@@ -10901,7 +10898,7 @@
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
@@ -10909,7 +10906,7 @@
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1">
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
@@ -10917,7 +10914,7 @@
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>8</v>
       </c>
@@ -10925,7 +10922,7 @@
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1">
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -10933,7 +10930,7 @@
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
     </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>9</v>
       </c>
@@ -10943,7 +10940,7 @@
       <c r="E10" s="8"/>
       <c r="F10" s="51"/>
     </row>
-    <row r="11" spans="1:6" ht="15" customHeight="1">
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="57" t="s">
         <v>39</v>
       </c>
@@ -10953,8 +10950,8 @@
       <c r="E11" s="58"/>
       <c r="F11" s="59"/>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1"/>
-    <row r="13" spans="1:6" ht="15" customHeight="1">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
         <v>10</v>
       </c>
@@ -10964,205 +10961,205 @@
       <c r="E13" s="11"/>
       <c r="F13" s="11"/>
     </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1">
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="E14" s="10">
         <v>37</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="15" customHeight="1"/>
-    <row r="16" spans="1:6" ht="15" customHeight="1">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="2" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
         <v>11</v>
       </c>
       <c r="B17" s="55" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="C17" s="5"/>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
     </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1">
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="11" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="G19" s="11" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1">
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="17" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="B20" s="30" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="E20" s="30">
         <v>37</v>
       </c>
       <c r="F20" s="17" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="G20" s="17" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="17" t="s">
+        <v>253</v>
+      </c>
+      <c r="B21" s="30" t="s">
+        <v>280</v>
+      </c>
+      <c r="C21" s="17" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1">
-      <c r="A21" s="17" t="s">
-        <v>249</v>
-      </c>
-      <c r="B21" s="30" t="s">
-        <v>276</v>
-      </c>
-      <c r="C21" s="17" t="s">
-        <v>271</v>
-      </c>
       <c r="D21" s="17" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="E21" s="30">
         <v>37</v>
       </c>
       <c r="F21" s="17" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="G21" s="17" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="30" t="s">
+        <v>254</v>
+      </c>
+      <c r="B22" s="30" t="s">
+        <v>282</v>
+      </c>
+      <c r="C22" s="17" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" ht="15" customHeight="1">
-      <c r="A22" s="30" t="s">
-        <v>250</v>
-      </c>
-      <c r="B22" s="30" t="s">
-        <v>278</v>
-      </c>
-      <c r="C22" s="17" t="s">
-        <v>271</v>
-      </c>
       <c r="D22" s="30" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="E22" s="30">
         <v>37</v>
       </c>
       <c r="F22" s="17" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="G22" s="17" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="30" t="s">
+        <v>256</v>
+      </c>
+      <c r="B23" s="30" t="s">
+        <v>285</v>
+      </c>
+      <c r="C23" s="17" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" ht="15" customHeight="1">
-      <c r="A23" s="30" t="s">
-        <v>252</v>
-      </c>
-      <c r="B23" s="30" t="s">
-        <v>281</v>
-      </c>
-      <c r="C23" s="17" t="s">
-        <v>271</v>
-      </c>
       <c r="D23" s="30" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="E23" s="30">
         <v>37</v>
       </c>
       <c r="F23" s="17" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="G23" s="17" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="30" t="s">
+        <v>258</v>
+      </c>
+      <c r="B24" s="30" t="s">
+        <v>288</v>
+      </c>
+      <c r="C24" s="17" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" ht="15" customHeight="1">
-      <c r="A24" s="30" t="s">
-        <v>254</v>
-      </c>
-      <c r="B24" s="30" t="s">
-        <v>284</v>
-      </c>
-      <c r="C24" s="17" t="s">
-        <v>271</v>
-      </c>
       <c r="D24" s="30" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="E24" s="30">
         <v>37</v>
       </c>
       <c r="F24" s="17" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="G24" s="17" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="30" t="s">
+        <v>260</v>
+      </c>
+      <c r="B25" s="30" t="s">
+        <v>291</v>
+      </c>
+      <c r="C25" s="17" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" ht="15" customHeight="1">
-      <c r="A25" s="30" t="s">
-        <v>256</v>
-      </c>
-      <c r="B25" s="30" t="s">
-        <v>287</v>
-      </c>
-      <c r="C25" s="17" t="s">
-        <v>271</v>
-      </c>
       <c r="D25" s="30" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="E25" s="30">
         <v>37</v>
       </c>
       <c r="F25" s="17" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="G25" s="17" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
     </row>
   </sheetData>
@@ -11189,19 +11186,19 @@
       <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11.26953125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.140625" style="30" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" style="30" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" style="30" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" style="30" customWidth="1"/>
-    <col min="5" max="5" width="16.42578125" style="30" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.85546875" style="30" bestFit="1" customWidth="1"/>
-    <col min="7" max="15" width="8.5703125" style="30" customWidth="1"/>
-    <col min="16" max="16384" width="11.28515625" style="30"/>
+    <col min="1" max="1" width="16.1796875" style="30" customWidth="1"/>
+    <col min="2" max="2" width="10.7265625" style="30" customWidth="1"/>
+    <col min="3" max="3" width="11.81640625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="14.1796875" style="30" customWidth="1"/>
+    <col min="5" max="5" width="16.453125" style="30" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.81640625" style="30" bestFit="1" customWidth="1"/>
+    <col min="7" max="15" width="8.54296875" style="30" customWidth="1"/>
+    <col min="16" max="16384" width="11.26953125" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" customHeight="1">
+    <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11210,63 +11207,63 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="53"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:6" ht="15" customHeight="1">
+    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="54"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="53"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1">
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="53"/>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="53"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1">
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="53"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="53"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1">
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
     </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>9</v>
       </c>
@@ -11275,7 +11272,7 @@
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
     </row>
-    <row r="11" spans="1:6" ht="15" customHeight="1">
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="57" t="s">
         <v>39</v>
       </c>
@@ -11284,8 +11281,8 @@
       <c r="D11" s="58"/>
       <c r="E11" s="58"/>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1"/>
-    <row r="13" spans="1:6" ht="15" customHeight="1">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
         <v>10</v>
       </c>
@@ -11295,7 +11292,7 @@
       <c r="E13" s="11"/>
       <c r="F13" s="11"/>
     </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1">
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
         <v>228</v>
       </c>
@@ -11312,49 +11309,49 @@
         <v>2</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="15" customHeight="1"/>
-    <row r="16" spans="1:6" ht="15" customHeight="1">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="2" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
         <v>11</v>
       </c>
       <c r="B17" s="55" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="C17" s="5"/>
     </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1">
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
     </row>
-    <row r="19" spans="1:6" ht="15" customHeight="1">
+    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="11" t="s">
         <v>139</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="F19" s="11" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" customHeight="1">
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="30" t="s">
         <v>135</v>
       </c>
@@ -11365,18 +11362,18 @@
         <v>3</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="E20" s="30" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="F20" s="17" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="15" customHeight="1">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="30" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B21" s="30">
         <v>5</v>
@@ -11385,18 +11382,18 @@
         <v>3</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="E21" s="30" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="F21" s="17" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="30" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B22" s="30">
         <v>3</v>
@@ -11405,18 +11402,18 @@
         <v>10</v>
       </c>
       <c r="D22" s="30" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="E22" s="30" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="F22" s="17" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="15" customHeight="1">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="30" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="B23" s="30">
         <v>3</v>
@@ -11425,18 +11422,18 @@
         <v>12</v>
       </c>
       <c r="D23" s="30" t="s">
+        <v>256</v>
+      </c>
+      <c r="E23" s="30" t="s">
+        <v>241</v>
+      </c>
+      <c r="F23" s="17" t="s">
         <v>252</v>
       </c>
-      <c r="E23" s="30" t="s">
-        <v>237</v>
-      </c>
-      <c r="F23" s="17" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1">
+    </row>
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="30" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="B24" s="30">
         <v>6</v>
@@ -11445,18 +11442,18 @@
         <v>9</v>
       </c>
       <c r="D24" s="30" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="E24" s="30" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="F24" s="17" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="15" customHeight="1">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="30" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="B25" s="30">
         <v>2</v>
@@ -11465,13 +11462,13 @@
         <v>12</v>
       </c>
       <c r="D25" s="30" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="E25" s="30" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="F25" s="17" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
   </sheetData>
@@ -11498,22 +11495,22 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11.26953125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.140625" style="30" customWidth="1"/>
-    <col min="2" max="4" width="11.140625" style="30" customWidth="1"/>
+    <col min="1" max="1" width="16.1796875" style="30" customWidth="1"/>
+    <col min="2" max="4" width="11.1796875" style="30" customWidth="1"/>
     <col min="5" max="5" width="25" style="30" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.85546875" style="30" bestFit="1" customWidth="1"/>
-    <col min="7" max="15" width="8.5703125" style="30" customWidth="1"/>
-    <col min="16" max="16384" width="11.28515625" style="30"/>
+    <col min="6" max="6" width="19.81640625" style="30" bestFit="1" customWidth="1"/>
+    <col min="7" max="15" width="8.54296875" style="30" customWidth="1"/>
+    <col min="16" max="16384" width="11.26953125" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" customHeight="1">
+    <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -11522,7 +11519,7 @@
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:6" ht="15" customHeight="1">
+    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -11531,7 +11528,7 @@
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
@@ -11540,7 +11537,7 @@
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1">
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
@@ -11549,7 +11546,7 @@
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
@@ -11558,7 +11555,7 @@
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1">
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
@@ -11567,7 +11564,7 @@
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>8</v>
       </c>
@@ -11576,14 +11573,14 @@
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1">
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
     </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>9</v>
       </c>
@@ -11592,7 +11589,7 @@
       <c r="D10" s="8"/>
       <c r="E10" s="51"/>
     </row>
-    <row r="11" spans="1:6" ht="15" customHeight="1">
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="57" t="s">
         <v>39</v>
       </c>
@@ -11601,8 +11598,8 @@
       <c r="D11" s="58"/>
       <c r="E11" s="59"/>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1"/>
-    <row r="13" spans="1:6" ht="15" customHeight="1">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
         <v>10</v>
       </c>
@@ -11612,15 +11609,15 @@
       <c r="E13" s="11"/>
       <c r="F13" s="11"/>
     </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1">
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="D14" s="10" t="s">
         <v>76</v>
@@ -11629,31 +11626,31 @@
         <v>142</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="15" customHeight="1"/>
-    <row r="16" spans="1:6" ht="15" customHeight="1"/>
-    <row r="17" spans="1:6" ht="15" customHeight="1">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1">
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
     </row>
-    <row r="19" spans="1:6" ht="15" customHeight="1">
+    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="11" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="D19" s="11" t="s">
         <v>53</v>
@@ -11665,15 +11662,15 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" customHeight="1">
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="30" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="B20" s="30" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="C20" s="30" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="D20" s="30" t="s">
         <v>61</v>
@@ -11682,18 +11679,18 @@
         <v>142</v>
       </c>
       <c r="F20" s="17" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="15" customHeight="1">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="30" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="B21" s="30" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="C21" s="30" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="D21" s="30" t="s">
         <v>77</v>
@@ -11702,18 +11699,18 @@
         <v>142</v>
       </c>
       <c r="F21" s="17" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="30" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="B22" s="30" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="C22" s="30" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="D22" s="30" t="s">
         <v>76</v>
@@ -11722,18 +11719,18 @@
         <v>142</v>
       </c>
       <c r="F22" s="17" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="15" customHeight="1">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="30" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="B23" s="30" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="C23" s="30" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="D23" s="30" t="s">
         <v>75</v>
@@ -11742,18 +11739,18 @@
         <v>142</v>
       </c>
       <c r="F23" s="17" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="30" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="B24" s="30" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="C24" s="30" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="D24" s="30" t="s">
         <v>74</v>
@@ -11762,18 +11759,18 @@
         <v>142</v>
       </c>
       <c r="F24" s="17" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="15" customHeight="1">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="30" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="B25" s="30" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="C25" s="30" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="D25" s="30" t="s">
         <v>61</v>
@@ -11782,7 +11779,7 @@
         <v>142</v>
       </c>
       <c r="F25" s="17" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
     </row>
   </sheetData>
@@ -11809,16 +11806,16 @@
       <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11.26953125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" style="30" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="14.140625" style="30" customWidth="1"/>
-    <col min="4" max="5" width="11.140625" style="30" customWidth="1"/>
-    <col min="6" max="14" width="8.5703125" style="30" customWidth="1"/>
-    <col min="15" max="16384" width="11.28515625" style="30"/>
+    <col min="1" max="1" width="17.453125" style="30" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="14.1796875" style="30" customWidth="1"/>
+    <col min="4" max="5" width="11.1796875" style="30" customWidth="1"/>
+    <col min="6" max="14" width="8.54296875" style="30" customWidth="1"/>
+    <col min="15" max="16384" width="11.26953125" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" customHeight="1">
+    <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11827,63 +11824,63 @@
       </c>
       <c r="C1" s="2"/>
     </row>
-    <row r="2" spans="1:5" ht="15" customHeight="1">
+    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:5" ht="15" customHeight="1">
+    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5" ht="15" customHeight="1">
+    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" ht="15" customHeight="1">
+    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:5" ht="15" customHeight="1">
+    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:5" ht="15" customHeight="1">
+    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:5" ht="15" customHeight="1">
+    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:5" ht="15" customHeight="1">
+    <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
     </row>
-    <row r="10" spans="1:5" ht="15" customHeight="1">
+    <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>9</v>
       </c>
@@ -11892,7 +11889,7 @@
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
     </row>
-    <row r="11" spans="1:5" ht="15" customHeight="1">
+    <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="57" t="s">
         <v>39</v>
       </c>
@@ -11901,8 +11898,8 @@
       <c r="D11" s="58"/>
       <c r="E11" s="58"/>
     </row>
-    <row r="12" spans="1:5" ht="15" customHeight="1"/>
-    <row r="13" spans="1:5" ht="15" customHeight="1">
+    <row r="12" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
         <v>10</v>
       </c>
@@ -11911,62 +11908,62 @@
       <c r="D13" s="11"/>
       <c r="E13" s="11"/>
     </row>
-    <row r="14" spans="1:5" ht="15" customHeight="1">
+    <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="15" customHeight="1"/>
-    <row r="16" spans="1:5" ht="15" customHeight="1"/>
-    <row r="17" spans="1:5" ht="15" customHeight="1">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15" customHeight="1">
+    <row r="18" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
     </row>
-    <row r="19" spans="1:5" ht="15" customHeight="1">
+    <row r="19" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="11" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="B19" s="11" t="s">
         <v>139</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="15" customHeight="1">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="30" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="B20" s="30" t="s">
         <v>135</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="D20" s="30">
         <v>0</v>
@@ -11975,15 +11972,15 @@
         <v>500</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15" customHeight="1">
+    <row r="21" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="30" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="B21" s="30" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="D21" s="30">
         <v>1</v>
@@ -11992,15 +11989,15 @@
         <v>525</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15" customHeight="1">
+    <row r="22" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="30" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="B22" s="30" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C22" s="30" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="D22" s="30">
         <v>2</v>
@@ -12009,15 +12006,15 @@
         <v>540</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15" customHeight="1">
+    <row r="23" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="30" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="B23" s="30" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="C23" s="30" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="D23" s="30">
         <v>3</v>
@@ -12026,15 +12023,15 @@
         <v>515</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="15" customHeight="1">
+    <row r="24" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="30" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="B24" s="30" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="C24" s="30" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="D24" s="30">
         <v>4</v>
@@ -12043,15 +12040,15 @@
         <v>545</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="15" customHeight="1">
+    <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="30" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="B25" s="30" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="C25" s="30" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="D25" s="30">
         <v>5</v>
@@ -12079,25 +12076,25 @@
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11.26953125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.140625" style="30" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" style="30" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" style="30" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="11.140625" style="30" customWidth="1"/>
-    <col min="6" max="6" width="19.85546875" style="30" bestFit="1" customWidth="1"/>
-    <col min="7" max="15" width="8.5703125" style="30" customWidth="1"/>
-    <col min="16" max="16384" width="11.28515625" style="30"/>
+    <col min="1" max="1" width="16.1796875" style="30" customWidth="1"/>
+    <col min="2" max="2" width="14.1796875" style="30" customWidth="1"/>
+    <col min="3" max="3" width="12.54296875" style="30" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="11.1796875" style="30" customWidth="1"/>
+    <col min="6" max="6" width="19.81640625" style="30" bestFit="1" customWidth="1"/>
+    <col min="7" max="15" width="8.54296875" style="30" customWidth="1"/>
+    <col min="16" max="16384" width="11.26953125" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" customHeight="1">
+    <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5"/>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>9</v>
       </c>
@@ -12106,7 +12103,7 @@
       <c r="D2" s="8"/>
       <c r="E2" s="9"/>
     </row>
-    <row r="3" spans="1:6" ht="15" customHeight="1">
+    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="57" t="s">
         <v>39</v>
       </c>
@@ -12115,8 +12112,8 @@
       <c r="D3" s="58"/>
       <c r="E3" s="56"/>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1"/>
-    <row r="5" spans="1:6" ht="15" customHeight="1">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>10</v>
       </c>
@@ -12126,18 +12123,18 @@
       <c r="E5" s="11"/>
       <c r="F5" s="11"/>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="E6" s="10" t="s">
         <v>115</v>
@@ -12146,31 +12143,31 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1"/>
-    <row r="8" spans="1:6" ht="15" customHeight="1"/>
-    <row r="9" spans="1:6" ht="15" customHeight="1">
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
     </row>
-    <row r="11" spans="1:6" ht="15" customHeight="1">
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="E11" s="11" t="s">
         <v>83</v>
@@ -12179,18 +12176,18 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="30" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="C12" s="30" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="D12" s="30" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="E12" s="30" t="s">
         <v>115</v>
@@ -12199,18 +12196,18 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1">
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="30" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="C13" s="30" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="D13" s="30" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="E13" s="30" t="s">
         <v>115</v>
@@ -12219,18 +12216,18 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1">
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="30" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="B14" s="30" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="C14" s="30" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="D14" s="30" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="E14" s="30" t="s">
         <v>115</v>
@@ -12239,18 +12236,18 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15" customHeight="1">
+    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="30" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="B15" s="30" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="C15" s="30" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="D15" s="30" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="E15" s="30" t="s">
         <v>115</v>
@@ -12259,18 +12256,18 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15" customHeight="1">
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="30" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="B16" s="30" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="C16" s="30" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="D16" s="30" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="E16" s="30" t="s">
         <v>115</v>
@@ -12303,26 +12300,26 @@
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="16"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.90625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5703125" customWidth="1"/>
-    <col min="8" max="8" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.6328125" customWidth="1"/>
+    <col min="8" max="8" width="9.36328125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="F1" s="5"/>
       <c r="G1" s="6"/>
       <c r="H1" s="6"/>
       <c r="I1" s="6"/>
       <c r="J1" s="30"/>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>9</v>
       </c>
@@ -12330,7 +12327,7 @@
       <c r="C2" s="8"/>
       <c r="D2" s="30"/>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="57" t="s">
         <v>39</v>
       </c>
@@ -12338,13 +12335,13 @@
       <c r="C3" s="58"/>
       <c r="D3" s="30"/>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="30"/>
       <c r="B4" s="30"/>
       <c r="C4" s="30"/>
       <c r="D4" s="30"/>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>10</v>
       </c>
@@ -12352,33 +12349,33 @@
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="30"/>
       <c r="B7" s="30"/>
       <c r="C7" s="30"/>
       <c r="D7" s="30"/>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="30"/>
       <c r="B8" s="30"/>
       <c r="C8" s="30"/>
       <c r="D8" s="30"/>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>11</v>
       </c>
@@ -12386,21 +12383,21 @@
       <c r="C9" s="30"/>
       <c r="D9" s="30"/>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="30"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
       <c r="D10" s="30"/>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="D11" s="11" t="s">
         <v>31</v>
@@ -12409,89 +12406,89 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="30" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="C12" s="30" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="C13" s="30" t="s">
+        <v>188</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>220</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="30" t="s">
+        <v>189</v>
+      </c>
+      <c r="B14" s="30" t="s">
+        <v>190</v>
+      </c>
+      <c r="C14" s="30" t="s">
         <v>182</v>
       </c>
-      <c r="B13" s="17" t="s">
-        <v>183</v>
-      </c>
-      <c r="C13" s="30" t="s">
-        <v>184</v>
-      </c>
-      <c r="D13" s="17" t="s">
-        <v>216</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="30" t="s">
-        <v>185</v>
-      </c>
-      <c r="B14" s="30" t="s">
-        <v>186</v>
-      </c>
-      <c r="C14" s="30" t="s">
-        <v>178</v>
-      </c>
       <c r="D14" s="17" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="30" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="B15" s="30" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="C15" s="30" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="30" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="B16" s="30" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="C16" s="30" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
     </row>
   </sheetData>
